--- a/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H2">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I2">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J2">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.9086306038899</v>
+        <v>17.945525</v>
       </c>
       <c r="N2">
-        <v>17.9086306038899</v>
+        <v>35.89105</v>
       </c>
       <c r="O2">
-        <v>0.3222769267999882</v>
+        <v>0.3147738875783</v>
       </c>
       <c r="P2">
-        <v>0.3222769267999882</v>
+        <v>0.2472168478181395</v>
       </c>
       <c r="Q2">
-        <v>539.3481361369971</v>
+        <v>572.4626153832625</v>
       </c>
       <c r="R2">
-        <v>539.3481361369971</v>
+        <v>2289.85046153305</v>
       </c>
       <c r="S2">
-        <v>0.001656234197777373</v>
+        <v>0.001515424224772229</v>
       </c>
       <c r="T2">
-        <v>0.001656234197777373</v>
+        <v>0.0007962448588348378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H3">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I3">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J3">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.89548939855882</v>
+        <v>3.914977</v>
       </c>
       <c r="N3">
-        <v>3.89548939855882</v>
+        <v>11.744931</v>
       </c>
       <c r="O3">
-        <v>0.07010175035252456</v>
+        <v>0.06867074270993077</v>
       </c>
       <c r="P3">
-        <v>0.07010175035252456</v>
+        <v>0.0808988541617353</v>
       </c>
       <c r="Q3">
-        <v>117.3191291352992</v>
+        <v>124.8878465570285</v>
       </c>
       <c r="R3">
-        <v>117.3191291352992</v>
+        <v>749.327079342171</v>
       </c>
       <c r="S3">
-        <v>0.0003602644390672137</v>
+        <v>0.0003306033668686822</v>
       </c>
       <c r="T3">
-        <v>0.0003602644390672137</v>
+        <v>0.0002605619207607443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H4">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I4">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J4">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.9724151835809</v>
+        <v>7.595080333333333</v>
       </c>
       <c r="N4">
-        <v>6.9724151835809</v>
+        <v>22.785241</v>
       </c>
       <c r="O4">
-        <v>0.1254729402509397</v>
+        <v>0.133221678551774</v>
       </c>
       <c r="P4">
-        <v>0.1254729402509397</v>
+        <v>0.1569442927079769</v>
       </c>
       <c r="Q4">
-        <v>209.985856362509</v>
+        <v>242.2832183324801</v>
       </c>
       <c r="R4">
-        <v>209.985856362509</v>
+        <v>1453.699309994881</v>
       </c>
       <c r="S4">
-        <v>0.0006448261022057476</v>
+        <v>0.0006413726389294529</v>
       </c>
       <c r="T4">
-        <v>0.0006448261022057476</v>
+        <v>0.0005054917870489373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H5">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I5">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J5">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.81797722923503</v>
+        <v>8.835736333333331</v>
       </c>
       <c r="N5">
-        <v>8.81797722923503</v>
+        <v>26.507209</v>
       </c>
       <c r="O5">
-        <v>0.1586849751322064</v>
+        <v>0.1549834332102386</v>
       </c>
       <c r="P5">
-        <v>0.1586849751322064</v>
+        <v>0.18258113522554</v>
       </c>
       <c r="Q5">
-        <v>265.5680207091525</v>
+        <v>281.8601701659281</v>
       </c>
       <c r="R5">
-        <v>265.5680207091525</v>
+        <v>1691.161020995569</v>
       </c>
       <c r="S5">
-        <v>0.0008155082186523508</v>
+        <v>0.0007461408280467405</v>
       </c>
       <c r="T5">
-        <v>0.0008155082186523508</v>
+        <v>0.0005880638456749116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H6">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I6">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J6">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.4868272380263</v>
+        <v>10.81295533333333</v>
       </c>
       <c r="N6">
-        <v>10.4868272380263</v>
+        <v>32.438866</v>
       </c>
       <c r="O6">
-        <v>0.1887169671934287</v>
+        <v>0.1896648878471846</v>
       </c>
       <c r="P6">
-        <v>0.1887169671934287</v>
+        <v>0.2234382721964117</v>
       </c>
       <c r="Q6">
-        <v>315.8282087515747</v>
+        <v>344.9334967989177</v>
       </c>
       <c r="R6">
-        <v>315.8282087515747</v>
+        <v>2069.600980793506</v>
       </c>
       <c r="S6">
-        <v>0.0009698475713732008</v>
+        <v>0.0009131086693486768</v>
       </c>
       <c r="T6">
-        <v>0.0009698475713732008</v>
+        <v>0.0007196579726403163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H7">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I7">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J7">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.48773499847391</v>
+        <v>7.90657</v>
       </c>
       <c r="N7">
-        <v>7.48773499847391</v>
+        <v>15.81314</v>
       </c>
       <c r="O7">
-        <v>0.1347464402709125</v>
+        <v>0.1386853701025721</v>
       </c>
       <c r="P7">
-        <v>0.1347464402709125</v>
+        <v>0.1089205978901965</v>
       </c>
       <c r="Q7">
-        <v>225.5055679375882</v>
+        <v>252.219745084685</v>
       </c>
       <c r="R7">
-        <v>225.5055679375882</v>
+        <v>1008.87898033874</v>
       </c>
       <c r="S7">
-        <v>0.0006924841459219839</v>
+        <v>0.0006676766331916935</v>
       </c>
       <c r="T7">
-        <v>0.0006924841459219839</v>
+        <v>0.0003508153544417209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H8">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.9086306038899</v>
+        <v>17.945525</v>
       </c>
       <c r="N8">
-        <v>17.9086306038899</v>
+        <v>35.89105</v>
       </c>
       <c r="O8">
-        <v>0.3222769267999882</v>
+        <v>0.3147738875783</v>
       </c>
       <c r="P8">
-        <v>0.3222769267999882</v>
+        <v>0.2472168478181395</v>
       </c>
       <c r="Q8">
-        <v>72.65486450285387</v>
+        <v>80.98125726155833</v>
       </c>
       <c r="R8">
-        <v>72.65486450285387</v>
+        <v>485.88754356935</v>
       </c>
       <c r="S8">
-        <v>0.0002231090888463599</v>
+        <v>0.0002143737524668158</v>
       </c>
       <c r="T8">
-        <v>0.0002231090888463599</v>
+        <v>0.0001689566480598756</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H9">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.89548939855882</v>
+        <v>3.914977</v>
       </c>
       <c r="N9">
-        <v>3.89548939855882</v>
+        <v>11.744931</v>
       </c>
       <c r="O9">
-        <v>0.07010175035252456</v>
+        <v>0.06867074270993077</v>
       </c>
       <c r="P9">
-        <v>0.07010175035252456</v>
+        <v>0.0808988541617353</v>
       </c>
       <c r="Q9">
-        <v>15.80390263692854</v>
+        <v>17.66678654483967</v>
       </c>
       <c r="R9">
-        <v>15.80390263692854</v>
+        <v>159.001078903557</v>
       </c>
       <c r="S9">
-        <v>4.853073970571114E-05</v>
+        <v>4.676755404543902E-05</v>
       </c>
       <c r="T9">
-        <v>4.853073970571114E-05</v>
+        <v>5.528910894093437E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H10">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J10">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.9724151835809</v>
+        <v>7.595080333333333</v>
       </c>
       <c r="N10">
-        <v>6.9724151835809</v>
+        <v>22.785241</v>
       </c>
       <c r="O10">
-        <v>0.1254729402509397</v>
+        <v>0.133221678551774</v>
       </c>
       <c r="P10">
-        <v>0.1254729402509397</v>
+        <v>0.1569442927079769</v>
       </c>
       <c r="Q10">
-        <v>28.28691325570577</v>
+        <v>34.27367850179188</v>
       </c>
       <c r="R10">
-        <v>28.28691325570577</v>
+        <v>308.463106516127</v>
       </c>
       <c r="S10">
-        <v>8.686365993441E-05</v>
+        <v>9.072935293581998E-05</v>
       </c>
       <c r="T10">
-        <v>8.686365993441E-05</v>
+        <v>0.0001072612237478828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H11">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J11">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.81797722923503</v>
+        <v>8.835736333333331</v>
       </c>
       <c r="N11">
-        <v>8.81797722923503</v>
+        <v>26.507209</v>
       </c>
       <c r="O11">
-        <v>0.1586849751322064</v>
+        <v>0.1549834332102386</v>
       </c>
       <c r="P11">
-        <v>0.1586849751322064</v>
+        <v>0.18258113522554</v>
       </c>
       <c r="Q11">
-        <v>35.77431211519676</v>
+        <v>39.87228220433587</v>
       </c>
       <c r="R11">
-        <v>35.77431211519676</v>
+        <v>358.8505398390229</v>
       </c>
       <c r="S11">
-        <v>0.0001098560190668765</v>
+        <v>0.0001055499882886709</v>
       </c>
       <c r="T11">
-        <v>0.0001098560190668765</v>
+        <v>0.0001247823393871889</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H12">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J12">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4868272380263</v>
+        <v>10.81295533333333</v>
       </c>
       <c r="N12">
-        <v>10.4868272380263</v>
+        <v>32.438866</v>
       </c>
       <c r="O12">
-        <v>0.1887169671934287</v>
+        <v>0.1896648878471846</v>
       </c>
       <c r="P12">
-        <v>0.1887169671934287</v>
+        <v>0.2234382721964117</v>
       </c>
       <c r="Q12">
-        <v>42.54479468006577</v>
+        <v>48.79471164016689</v>
       </c>
       <c r="R12">
-        <v>42.54479468006577</v>
+        <v>439.1524047615021</v>
       </c>
       <c r="S12">
-        <v>0.0001306468664028971</v>
+        <v>0.0001291694620281511</v>
       </c>
       <c r="T12">
-        <v>0.0001306468664028971</v>
+        <v>0.0001527055370690873</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H13">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J13">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.48773499847391</v>
+        <v>7.90657</v>
       </c>
       <c r="N13">
-        <v>7.48773499847391</v>
+        <v>15.81314</v>
       </c>
       <c r="O13">
-        <v>0.1347464402709125</v>
+        <v>0.1386853701025721</v>
       </c>
       <c r="P13">
-        <v>0.1347464402709125</v>
+        <v>0.1089205978901965</v>
       </c>
       <c r="Q13">
-        <v>30.37755280011376</v>
+        <v>35.67931165159666</v>
       </c>
       <c r="R13">
-        <v>30.37755280011376</v>
+        <v>214.07586990958</v>
       </c>
       <c r="S13">
-        <v>9.328361112488694E-05</v>
+        <v>9.445034793028077E-05</v>
       </c>
       <c r="T13">
-        <v>9.328361112488694E-05</v>
+        <v>7.444014955543348E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H14">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I14">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J14">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.9086306038899</v>
+        <v>17.945525</v>
       </c>
       <c r="N14">
-        <v>17.9086306038899</v>
+        <v>35.89105</v>
       </c>
       <c r="O14">
-        <v>0.3222769267999882</v>
+        <v>0.3147738875783</v>
       </c>
       <c r="P14">
-        <v>0.3222769267999882</v>
+        <v>0.2472168478181395</v>
       </c>
       <c r="Q14">
-        <v>37170.044619317</v>
+        <v>48339.54290716146</v>
       </c>
       <c r="R14">
-        <v>37170.044619317</v>
+        <v>290037.2574429687</v>
       </c>
       <c r="S14">
-        <v>0.1141420446399513</v>
+        <v>0.1279645384124954</v>
       </c>
       <c r="T14">
-        <v>0.1141420446399513</v>
+        <v>0.1008540422132657</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H15">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I15">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J15">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.89548939855882</v>
+        <v>3.914977</v>
       </c>
       <c r="N15">
-        <v>3.89548939855882</v>
+        <v>11.744931</v>
       </c>
       <c r="O15">
-        <v>0.07010175035252456</v>
+        <v>0.06867074270993077</v>
       </c>
       <c r="P15">
-        <v>0.07010175035252456</v>
+        <v>0.0808988541617353</v>
       </c>
       <c r="Q15">
-        <v>8085.236552204998</v>
+        <v>10545.70421718229</v>
       </c>
       <c r="R15">
-        <v>8085.236552204998</v>
+        <v>94911.33795464064</v>
       </c>
       <c r="S15">
-        <v>0.0248282034879975</v>
+        <v>0.02791661011313606</v>
       </c>
       <c r="T15">
-        <v>0.0248282034879975</v>
+        <v>0.03300331884594886</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H16">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I16">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J16">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.9724151835809</v>
+        <v>7.595080333333333</v>
       </c>
       <c r="N16">
-        <v>6.9724151835809</v>
+        <v>22.785241</v>
       </c>
       <c r="O16">
-        <v>0.1254729402509397</v>
+        <v>0.133221678551774</v>
       </c>
       <c r="P16">
-        <v>0.1254729402509397</v>
+        <v>0.1569442927079769</v>
       </c>
       <c r="Q16">
-        <v>14471.51316091207</v>
+        <v>20458.73339768576</v>
       </c>
       <c r="R16">
-        <v>14471.51316091207</v>
+        <v>184128.6005791719</v>
       </c>
       <c r="S16">
-        <v>0.04443922836622143</v>
+        <v>0.05415840155475093</v>
       </c>
       <c r="T16">
-        <v>0.04443922836622143</v>
+        <v>0.06402664891814065</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H17">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I17">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J17">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.81797722923503</v>
+        <v>8.835736333333331</v>
       </c>
       <c r="N17">
-        <v>8.81797722923503</v>
+        <v>26.507209</v>
       </c>
       <c r="O17">
-        <v>0.1586849751322064</v>
+        <v>0.1549834332102386</v>
       </c>
       <c r="P17">
-        <v>0.1586849751322064</v>
+        <v>0.18258113522554</v>
       </c>
       <c r="Q17">
-        <v>18302.04744921112</v>
+        <v>23800.66649493576</v>
       </c>
       <c r="R17">
-        <v>18302.04744921112</v>
+        <v>214205.9984544218</v>
       </c>
       <c r="S17">
-        <v>0.05620206105065335</v>
+        <v>0.0630051737928823</v>
       </c>
       <c r="T17">
-        <v>0.05620206105065335</v>
+        <v>0.07448539887915945</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H18">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I18">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J18">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.4868272380263</v>
+        <v>10.81295533333333</v>
       </c>
       <c r="N18">
-        <v>10.4868272380263</v>
+        <v>32.438866</v>
       </c>
       <c r="O18">
-        <v>0.1887169671934287</v>
+        <v>0.1896648878471846</v>
       </c>
       <c r="P18">
-        <v>0.1887169671934287</v>
+        <v>0.2234382721964117</v>
       </c>
       <c r="Q18">
-        <v>21765.80917738287</v>
+        <v>29126.66630198264</v>
       </c>
       <c r="R18">
-        <v>21765.80917738287</v>
+        <v>262139.9967178438</v>
       </c>
       <c r="S18">
-        <v>0.0668386058772277</v>
+        <v>0.0771041715472203</v>
       </c>
       <c r="T18">
-        <v>0.0668386058772277</v>
+        <v>0.09115338673330732</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H19">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I19">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J19">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.48773499847391</v>
+        <v>7.90657</v>
       </c>
       <c r="N19">
-        <v>7.48773499847391</v>
+        <v>15.81314</v>
       </c>
       <c r="O19">
-        <v>0.1347464402709125</v>
+        <v>0.1386853701025721</v>
       </c>
       <c r="P19">
-        <v>0.1347464402709125</v>
+        <v>0.1089205978901965</v>
       </c>
       <c r="Q19">
-        <v>15541.07905550542</v>
+        <v>21297.78759682292</v>
       </c>
       <c r="R19">
-        <v>15541.07905550542</v>
+        <v>127786.7255809375</v>
       </c>
       <c r="S19">
-        <v>0.04772365913127354</v>
+        <v>0.05637954757389843</v>
       </c>
       <c r="T19">
-        <v>0.04772365913127354</v>
+        <v>0.04443500786642576</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H20">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I20">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J20">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.9086306038899</v>
+        <v>17.945525</v>
       </c>
       <c r="N20">
-        <v>17.9086306038899</v>
+        <v>35.89105</v>
       </c>
       <c r="O20">
-        <v>0.3222769267999882</v>
+        <v>0.3147738875783</v>
       </c>
       <c r="P20">
-        <v>0.3222769267999882</v>
+        <v>0.2472168478181395</v>
       </c>
       <c r="Q20">
-        <v>66137.87568813415</v>
+        <v>68667.99499355185</v>
       </c>
       <c r="R20">
-        <v>66137.87568813415</v>
+        <v>412007.9699613111</v>
       </c>
       <c r="S20">
-        <v>0.2030966719707229</v>
+        <v>0.181778059009317</v>
       </c>
       <c r="T20">
-        <v>0.2030966719707229</v>
+        <v>0.1432666601560686</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H21">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I21">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J21">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.89548939855882</v>
+        <v>3.914977</v>
       </c>
       <c r="N21">
-        <v>3.89548939855882</v>
+        <v>11.744931</v>
       </c>
       <c r="O21">
-        <v>0.07010175035252456</v>
+        <v>0.06867074270993077</v>
       </c>
       <c r="P21">
-        <v>0.07010175035252456</v>
+        <v>0.0808988541617353</v>
       </c>
       <c r="Q21">
-        <v>14386.32574901435</v>
+        <v>14980.53810272314</v>
       </c>
       <c r="R21">
-        <v>14386.32574901435</v>
+        <v>134824.8429245083</v>
       </c>
       <c r="S21">
-        <v>0.04417763423925238</v>
+        <v>0.03965651158860602</v>
       </c>
       <c r="T21">
-        <v>0.04417763423925238</v>
+        <v>0.04688235752739122</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H22">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I22">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J22">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.9724151835809</v>
+        <v>7.595080333333333</v>
       </c>
       <c r="N22">
-        <v>6.9724151835809</v>
+        <v>22.785241</v>
       </c>
       <c r="O22">
-        <v>0.1254729402509397</v>
+        <v>0.133221678551774</v>
       </c>
       <c r="P22">
-        <v>0.1254729402509397</v>
+        <v>0.1569442927079769</v>
       </c>
       <c r="Q22">
-        <v>25749.6365220448</v>
+        <v>29062.33940243919</v>
       </c>
       <c r="R22">
-        <v>25749.6365220448</v>
+        <v>261561.0546219527</v>
       </c>
       <c r="S22">
-        <v>0.07907217199933952</v>
+        <v>0.07693388524510539</v>
       </c>
       <c r="T22">
-        <v>0.07907217199933952</v>
+        <v>0.09095207242254323</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H23">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I23">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J23">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.81797722923503</v>
+        <v>8.835736333333331</v>
       </c>
       <c r="N23">
-        <v>8.81797722923503</v>
+        <v>26.507209</v>
       </c>
       <c r="O23">
-        <v>0.1586849751322064</v>
+        <v>0.1549834332102386</v>
       </c>
       <c r="P23">
-        <v>0.1586849751322064</v>
+        <v>0.18258113522554</v>
       </c>
       <c r="Q23">
-        <v>32565.43142283965</v>
+        <v>33809.67111865924</v>
       </c>
       <c r="R23">
-        <v>32565.43142283965</v>
+        <v>304287.0400679332</v>
       </c>
       <c r="S23">
-        <v>0.1000021647876445</v>
+        <v>0.08950103162718463</v>
       </c>
       <c r="T23">
-        <v>0.1000021647876445</v>
+        <v>0.1058090889926286</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H24">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I24">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J24">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.4868272380263</v>
+        <v>10.81295533333333</v>
       </c>
       <c r="N24">
-        <v>10.4868272380263</v>
+        <v>32.438866</v>
       </c>
       <c r="O24">
-        <v>0.1887169671934287</v>
+        <v>0.1896648878471846</v>
       </c>
       <c r="P24">
-        <v>0.1887169671934287</v>
+        <v>0.2234382721964117</v>
       </c>
       <c r="Q24">
-        <v>38728.61591555036</v>
+        <v>41375.43831650694</v>
       </c>
       <c r="R24">
-        <v>38728.61591555036</v>
+        <v>372378.9448485625</v>
       </c>
       <c r="S24">
-        <v>0.118928116765804</v>
+        <v>0.1095291462717182</v>
       </c>
       <c r="T24">
-        <v>0.118928116765804</v>
+        <v>0.1294865430537766</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H25">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I25">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J25">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.48773499847391</v>
+        <v>7.90657</v>
       </c>
       <c r="N25">
-        <v>7.48773499847391</v>
+        <v>15.81314</v>
       </c>
       <c r="O25">
-        <v>0.1347464402709125</v>
+        <v>0.1386853701025721</v>
       </c>
       <c r="P25">
-        <v>0.1347464402709125</v>
+        <v>0.1089205978901965</v>
       </c>
       <c r="Q25">
-        <v>27652.7500883955</v>
+        <v>30254.24495389058</v>
       </c>
       <c r="R25">
-        <v>27652.7500883955</v>
+        <v>181525.4697233435</v>
       </c>
       <c r="S25">
-        <v>0.08491626704603765</v>
+        <v>0.08008910009717161</v>
       </c>
       <c r="T25">
-        <v>0.08491626704603765</v>
+        <v>0.06312146773026518</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H26">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I26">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J26">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.9086306038899</v>
+        <v>17.945525</v>
       </c>
       <c r="N26">
-        <v>17.9086306038899</v>
+        <v>35.89105</v>
       </c>
       <c r="O26">
-        <v>0.3222769267999882</v>
+        <v>0.3147738875783</v>
       </c>
       <c r="P26">
-        <v>0.3222769267999882</v>
+        <v>0.2472168478181395</v>
       </c>
       <c r="Q26">
-        <v>496.3669081136272</v>
+        <v>569.7712322804666</v>
       </c>
       <c r="R26">
-        <v>496.3669081136272</v>
+        <v>3418.6273936828</v>
       </c>
       <c r="S26">
-        <v>0.001524247128674588</v>
+        <v>0.001508299589830979</v>
       </c>
       <c r="T26">
-        <v>0.001524247128674588</v>
+        <v>0.001188752074521694</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H27">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I27">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J27">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.89548939855882</v>
+        <v>3.914977</v>
       </c>
       <c r="N27">
-        <v>3.89548939855882</v>
+        <v>11.744931</v>
       </c>
       <c r="O27">
-        <v>0.07010175035252456</v>
+        <v>0.06867074270993077</v>
       </c>
       <c r="P27">
-        <v>0.07010175035252456</v>
+        <v>0.0808988541617353</v>
       </c>
       <c r="Q27">
-        <v>107.9698426484972</v>
+        <v>124.3006972289573</v>
       </c>
       <c r="R27">
-        <v>107.9698426484972</v>
+        <v>1118.706275060616</v>
       </c>
       <c r="S27">
-        <v>0.0003315545818029138</v>
+        <v>0.0003290490639475699</v>
       </c>
       <c r="T27">
-        <v>0.0003315545818029138</v>
+        <v>0.0003890053673928222</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H28">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I28">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J28">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.9724151835809</v>
+        <v>7.595080333333333</v>
       </c>
       <c r="N28">
-        <v>6.9724151835809</v>
+        <v>22.785241</v>
       </c>
       <c r="O28">
-        <v>0.1254729402509397</v>
+        <v>0.133221678551774</v>
       </c>
       <c r="P28">
-        <v>0.1254729402509397</v>
+        <v>0.1569442927079769</v>
       </c>
       <c r="Q28">
-        <v>193.251859581426</v>
+        <v>241.1441448936418</v>
       </c>
       <c r="R28">
-        <v>193.251859581426</v>
+        <v>2170.297304042776</v>
       </c>
       <c r="S28">
-        <v>0.0005934392226054328</v>
+        <v>0.0006383572813556582</v>
       </c>
       <c r="T28">
-        <v>0.0005934392226054328</v>
+        <v>0.000754672892189745</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H29">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I29">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J29">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.81797722923503</v>
+        <v>8.835736333333331</v>
       </c>
       <c r="N29">
-        <v>8.81797722923503</v>
+        <v>26.507209</v>
       </c>
       <c r="O29">
-        <v>0.1586849751322064</v>
+        <v>0.1549834332102386</v>
       </c>
       <c r="P29">
-        <v>0.1586849751322064</v>
+        <v>0.18258113522554</v>
       </c>
       <c r="Q29">
-        <v>244.4046219894139</v>
+        <v>280.5350291367137</v>
       </c>
       <c r="R29">
-        <v>244.4046219894139</v>
+        <v>2524.815262230424</v>
       </c>
       <c r="S29">
-        <v>0.0007505194992106177</v>
+        <v>0.0007426329119611343</v>
       </c>
       <c r="T29">
-        <v>0.0007505194992106177</v>
+        <v>0.0008779486721210469</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H30">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I30">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J30">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.4868272380263</v>
+        <v>10.81295533333333</v>
       </c>
       <c r="N30">
-        <v>10.4868272380263</v>
+        <v>32.438866</v>
       </c>
       <c r="O30">
-        <v>0.1887169671934287</v>
+        <v>0.1896648878471846</v>
       </c>
       <c r="P30">
-        <v>0.1887169671934287</v>
+        <v>0.2234382721964117</v>
       </c>
       <c r="Q30">
-        <v>290.6595220591711</v>
+        <v>343.3118220206418</v>
       </c>
       <c r="R30">
-        <v>290.6595220591711</v>
+        <v>3089.806398185776</v>
       </c>
       <c r="S30">
-        <v>0.0008925593843560589</v>
+        <v>0.0009088157685064862</v>
       </c>
       <c r="T30">
-        <v>0.0008925593843560589</v>
+        <v>0.001074411845087598</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H31">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I31">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J31">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.48773499847391</v>
+        <v>7.90657</v>
       </c>
       <c r="N31">
-        <v>7.48773499847391</v>
+        <v>15.81314</v>
       </c>
       <c r="O31">
-        <v>0.1347464402709125</v>
+        <v>0.1386853701025721</v>
       </c>
       <c r="P31">
-        <v>0.1347464402709125</v>
+        <v>0.1089205978901965</v>
       </c>
       <c r="Q31">
-        <v>207.5347887939238</v>
+        <v>251.0339559311733</v>
       </c>
       <c r="R31">
-        <v>207.5347887939238</v>
+        <v>1506.20373558704</v>
       </c>
       <c r="S31">
-        <v>0.0006372993460047718</v>
+        <v>0.0006645376096809605</v>
       </c>
       <c r="T31">
-        <v>0.0006372993460047718</v>
+        <v>0.0005237490399334089</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H32">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I32">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J32">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>17.9086306038899</v>
+        <v>17.945525</v>
       </c>
       <c r="N32">
-        <v>17.9086306038899</v>
+        <v>35.89105</v>
       </c>
       <c r="O32">
-        <v>0.3222769267999882</v>
+        <v>0.3147738875783</v>
       </c>
       <c r="P32">
-        <v>0.3222769267999882</v>
+        <v>0.2472168478181395</v>
       </c>
       <c r="Q32">
-        <v>532.3094581618363</v>
+        <v>677.391652346175</v>
       </c>
       <c r="R32">
-        <v>532.3094581618363</v>
+        <v>2709.5666093847</v>
       </c>
       <c r="S32">
-        <v>0.001634619774015571</v>
+        <v>0.001793192589417596</v>
       </c>
       <c r="T32">
-        <v>0.001634619774015571</v>
+        <v>0.0009421918673888788</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H33">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I33">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J33">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.89548939855882</v>
+        <v>3.914977</v>
       </c>
       <c r="N33">
-        <v>3.89548939855882</v>
+        <v>11.744931</v>
       </c>
       <c r="O33">
-        <v>0.07010175035252456</v>
+        <v>0.06867074270993077</v>
       </c>
       <c r="P33">
-        <v>0.07010175035252456</v>
+        <v>0.0808988541617353</v>
       </c>
       <c r="Q33">
-        <v>115.788074302656</v>
+        <v>147.779055721539</v>
       </c>
       <c r="R33">
-        <v>115.788074302656</v>
+        <v>886.6743343292341</v>
       </c>
       <c r="S33">
-        <v>0.0003555628646988321</v>
+        <v>0.0003912010233270039</v>
       </c>
       <c r="T33">
-        <v>0.0003555628646988321</v>
+        <v>0.0003083213913007152</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H34">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I34">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J34">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.9724151835809</v>
+        <v>7.595080333333333</v>
       </c>
       <c r="N34">
-        <v>6.9724151835809</v>
+        <v>22.785241</v>
       </c>
       <c r="O34">
-        <v>0.1254729402509397</v>
+        <v>0.133221678551774</v>
       </c>
       <c r="P34">
-        <v>0.1254729402509397</v>
+        <v>0.1569442927079769</v>
       </c>
       <c r="Q34">
-        <v>207.2454689888542</v>
+        <v>286.692310015929</v>
       </c>
       <c r="R34">
-        <v>207.2454689888542</v>
+        <v>1720.153860095574</v>
       </c>
       <c r="S34">
-        <v>0.0006364109006331375</v>
+        <v>0.000758932478696759</v>
       </c>
       <c r="T34">
-        <v>0.0006364109006331375</v>
+        <v>0.0005981454643064398</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H35">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I35">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J35">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.81797722923503</v>
+        <v>8.835736333333331</v>
       </c>
       <c r="N35">
-        <v>8.81797722923503</v>
+        <v>26.507209</v>
       </c>
       <c r="O35">
-        <v>0.1586849751322064</v>
+        <v>0.1549834332102386</v>
       </c>
       <c r="P35">
-        <v>0.1586849751322064</v>
+        <v>0.18258113522554</v>
       </c>
       <c r="Q35">
-        <v>262.1022670464797</v>
+        <v>333.5234847981209</v>
       </c>
       <c r="R35">
-        <v>262.1022670464797</v>
+        <v>2001.140908788726</v>
       </c>
       <c r="S35">
-        <v>0.0008048655569787543</v>
+        <v>0.0008829040618750986</v>
       </c>
       <c r="T35">
-        <v>0.0008048655569787543</v>
+        <v>0.0006958524965688463</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H36">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I36">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J36">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.4868272380263</v>
+        <v>10.81295533333333</v>
       </c>
       <c r="N36">
-        <v>10.4868272380263</v>
+        <v>32.438866</v>
       </c>
       <c r="O36">
-        <v>0.1887169671934287</v>
+        <v>0.1896648878471846</v>
       </c>
       <c r="P36">
-        <v>0.1887169671934287</v>
+        <v>0.2234382721964117</v>
       </c>
       <c r="Q36">
-        <v>311.7065424141397</v>
+        <v>408.157781953554</v>
       </c>
       <c r="R36">
-        <v>311.7065424141397</v>
+        <v>2448.946691721324</v>
       </c>
       <c r="S36">
-        <v>0.0009571907282648124</v>
+        <v>0.001080476128362742</v>
       </c>
       <c r="T36">
-        <v>0.0009571907282648124</v>
+        <v>0.0008515670545307985</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H37">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I37">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J37">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.48773499847391</v>
+        <v>7.90657</v>
       </c>
       <c r="N37">
-        <v>7.48773499847391</v>
+        <v>15.81314</v>
       </c>
       <c r="O37">
-        <v>0.1347464402709125</v>
+        <v>0.1386853701025721</v>
       </c>
       <c r="P37">
-        <v>0.1347464402709125</v>
+        <v>0.1089205978901965</v>
       </c>
       <c r="Q37">
-        <v>222.5626430103103</v>
+        <v>298.45014379299</v>
       </c>
       <c r="R37">
-        <v>222.5626430103103</v>
+        <v>1193.80057517196</v>
       </c>
       <c r="S37">
-        <v>0.0006834469905496493</v>
+        <v>0.0007900578406990868</v>
       </c>
       <c r="T37">
-        <v>0.0006834469905496493</v>
+        <v>0.0004151177495749435</v>
       </c>
     </row>
   </sheetData>
